--- a/input/PL/reg_retirement.xlsx
+++ b/input/PL/reg_retirement.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AC7AA717EB24B4850A5A66853678538D8DB95101" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFDD12E2-48E9-47BE-887F-C01CCC58E117}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/InitPopAfterFEB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_AC7AA717EB24B4850A5A66853678538D8DB95101" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F10856-352C-E041-9766-F7E680B5F219}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
   <si>
     <t>Description:</t>
   </si>
@@ -163,9 +168,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Reached_Retirement_Age_Les_c3_NotEmployed_L1</t>
@@ -196,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -205,6 +207,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,7 +240,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,10 +258,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,11 +561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -574,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -582,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -590,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -598,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -606,7 +613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -625,19 +632,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -651,7 +658,7 @@
         <v>1240.8086862163718</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -665,12 +672,12 @@
         <v>-2946688.6560477703</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -684,7 +691,7 @@
         <v>3206.7261414411896</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -705,13 +712,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -781,11 +793,8 @@
       <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -856,7 +865,7 @@
         <v>9.2155366467176481E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -927,7 +936,7 @@
         <v>-0.19270693019356422</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>1.4804186028314487E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>5.5397169638454091E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>8.3340611684416421E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>2.3442321949717375E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>-1.4829157271021631E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>0.14047956722483934</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>-2.6242751310778245E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>1.5215908750021781E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1575,7 @@
         <v>6.2394237257273541E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>5.8141930016507026E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>-4.2765602480863141E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>2.5638998954825409E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>-1.2019235986143254E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>-6.0027503194808041E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +2001,7 @@
         <v>-2.6690474041293905E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +2072,7 @@
         <v>-1.1154883995328491E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>-3.5665499525848465E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>2.8310852535623487E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2283,13 +2292,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AE29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2338,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -2342,19 +2356,19 @@
         <v>35</v>
       </c>
       <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
       </c>
       <c r="W1" t="s">
         <v>36</v>
@@ -2372,19 +2386,16 @@
         <v>40</v>
       </c>
       <c r="AB1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" t="s">
         <v>50</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>51</v>
       </c>
       <c r="AD1" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v>1.9711053348858452E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2568,7 +2579,7 @@
         <v>-0.13177490175099238</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>1.0574311244198882E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>1.979925068080483E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>2.3950738703727503E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2947,7 @@
         <v>-2.1186799020329471E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>-9.0396172880511782E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3131,7 @@
         <v>3.9084426417537642E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -3212,9 +3223,9 @@
         <v>3.800647758800986E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>3.1818378202738327E-2</v>
@@ -3304,7 +3315,7 @@
         <v>-3.1952590189943696E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3396,7 +3407,7 @@
         <v>-1.888738302854711E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>-4.8640755020138565E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3580,7 +3591,7 @@
         <v>1.202254955694416E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>5.4388672817952885E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3764,9 +3775,9 @@
         <v>-7.8578532581113567E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>3.0510245078998648E-3</v>
@@ -3856,9 +3867,9 @@
         <v>-8.6988509029209248E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>0.11228971480239665</v>
@@ -3948,9 +3959,9 @@
         <v>2.4348328183547582E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>0.14427479119321079</v>
@@ -4040,9 +4051,9 @@
         <v>2.386382796649171E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>9.7262821325371951E-2</v>
@@ -4132,9 +4143,9 @@
         <v>-1.6057612810675605E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>4.7105190428660793E-2</v>
@@ -4224,7 +4235,7 @@
         <v>4.0286680793748357E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>-1.0062623184785695E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -4408,7 +4419,7 @@
         <v>-5.0539260787616867E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4500,7 +4511,7 @@
         <v>-1.1223569844145683E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -4592,7 +4603,7 @@
         <v>-1.1567121739988287E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -4684,9 +4695,9 @@
         <v>4.1566508417919602E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>-0.54921268455328498</v>
@@ -4776,9 +4787,9 @@
         <v>-5.8182944123433659E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>-0.30869975888716916</v>
@@ -4868,7 +4879,7 @@
         <v>-2.2442823665064029E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>

--- a/input/PL/reg_retirement.xlsx
+++ b/input/PL/reg_retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/InitPopAfterFEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AC7AA717EB24B4850A5A66853678538D8DB95101" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4F10856-352C-E041-9766-F7E680B5F219}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E800C3F3-7ECB-1C4F-80E4-389D43DF9D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="43540" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="52">
   <si>
     <t>Description:</t>
   </si>
@@ -161,9 +161,6 @@
     <t>PL10</t>
   </si>
   <si>
-    <t>Year_transformed</t>
-  </si>
-  <si>
     <t>Post2015</t>
   </si>
   <si>
@@ -192,19 +189,30 @@
   </si>
   <si>
     <t>Y2023</t>
+  </si>
+  <si>
+    <t>Year_transformed_R1a</t>
+  </si>
+  <si>
+    <t>Year_transformed_R1b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -237,10 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,10 +265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,7 +720,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X22"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -784,14 +789,14 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -2073,8 +2078,8 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
+      <c r="A20" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B20">
         <v>-3.7557332645023304E-2</v>
@@ -2145,7 +2150,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>0.55685721702818491</v>
@@ -2216,7 +2221,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>-2.9406335547798501</v>
@@ -2295,7 +2300,7 @@
   <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE29"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2338,7 +2343,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -2356,19 +2361,19 @@
         <v>35</v>
       </c>
       <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
       </c>
       <c r="W1" t="s">
         <v>36</v>
@@ -2382,17 +2387,17 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s">
-        <v>40</v>
+      <c r="AA1" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="AB1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" t="s">
-        <v>50</v>
-      </c>
       <c r="AD1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -3225,7 +3230,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>3.1818378202738327E-2</v>
@@ -3777,7 +3782,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>3.0510245078998648E-3</v>
@@ -3869,7 +3874,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0.11228971480239665</v>
@@ -3961,7 +3966,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0.14427479119321079</v>
@@ -4053,7 +4058,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>9.7262821325371951E-2</v>
@@ -4145,7 +4150,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>4.7105190428660793E-2</v>
@@ -4604,8 +4609,8 @@
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>40</v>
+      <c r="A26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B26">
         <v>3.0394310007847012E-2</v>
@@ -4697,7 +4702,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>-0.54921268455328498</v>
@@ -4789,7 +4794,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>-0.30869975888716916</v>
@@ -4881,7 +4886,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>-12.771568153094867</v>
